--- a/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T11:27:19+00:00</t>
+    <t>2025-08-21T11:48:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T11:48:05+00:00</t>
+    <t>2025-08-21T11:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T11:51:57+00:00</t>
+    <t>2025-08-21T12:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T12:47:24+00:00</t>
+    <t>2025-09-05T12:53:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/350-modélisation---statut-dun-évènement-et-dune-évaluation/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7586" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7586" uniqueCount="886">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T12:53:29+00:00</t>
+    <t>2025-09-10T13:12:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1828,6 +1828,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1838,6 +1841,10 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -19232,7 +19239,7 @@
         <v>411</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>412</v>
+        <v>570</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>82</v>
@@ -19285,7 +19292,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>416</v>
@@ -19407,7 +19414,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>427</v>
@@ -19527,7 +19534,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>436</v>
@@ -19645,7 +19652,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>443</v>
@@ -19671,7 +19678,7 @@
         <v>92</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>444</v>
+        <v>575</v>
       </c>
       <c r="L138" t="s" s="2">
         <v>445</v>
@@ -19765,10 +19772,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19791,70 +19798,70 @@
         <v>92</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="O139" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="P139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q139" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="R139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF139" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="P139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q139" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="R139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19872,13 +19879,13 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>82</v>
@@ -19889,10 +19896,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19915,19 +19922,19 @@
         <v>92</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19964,7 +19971,7 @@
         <v>82</v>
       </c>
       <c r="AB140" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AC140" s="2"/>
       <c r="AD140" t="s" s="2">
@@ -19974,7 +19981,7 @@
         <v>118</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19992,16 +19999,16 @@
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -20009,13 +20016,13 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>82</v>
@@ -20037,19 +20044,19 @@
         <v>92</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -20098,7 +20105,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -20116,16 +20123,16 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -20133,10 +20140,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20251,10 +20258,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20371,10 +20378,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20400,16 +20407,16 @@
         <v>175</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20437,10 +20444,10 @@
         <v>266</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>82</v>
@@ -20458,7 +20465,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20485,7 +20492,7 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
@@ -20493,10 +20500,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20522,13 +20529,13 @@
         <v>105</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>287</v>
@@ -20580,7 +20587,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20607,7 +20614,7 @@
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20615,14 +20622,14 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
@@ -20644,13 +20651,13 @@
         <v>105</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
@@ -20700,7 +20707,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20715,10 +20722,10 @@
         <v>103</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>82</v>
@@ -20727,7 +20734,7 @@
         <v>82</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AP146" t="s" s="2">
         <v>82</v>
@@ -20735,14 +20742,14 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
@@ -20764,13 +20771,13 @@
         <v>105</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -20820,7 +20827,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20835,10 +20842,10 @@
         <v>103</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>82</v>
@@ -20847,7 +20854,7 @@
         <v>82</v>
       </c>
       <c r="AO147" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="AP147" t="s" s="2">
         <v>82</v>
@@ -20855,10 +20862,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20884,10 +20891,10 @@
         <v>105</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -20938,7 +20945,7 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -20956,7 +20963,7 @@
         <v>82</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>82</v>
@@ -20965,7 +20972,7 @@
         <v>82</v>
       </c>
       <c r="AO148" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AP148" t="s" s="2">
         <v>82</v>
@@ -20973,10 +20980,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -21002,10 +21009,10 @@
         <v>105</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -21056,7 +21063,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -21074,7 +21081,7 @@
         <v>82</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>82</v>
@@ -21083,7 +21090,7 @@
         <v>82</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="AP149" t="s" s="2">
         <v>82</v>
@@ -21091,10 +21098,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21120,14 +21127,14 @@
         <v>346</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>82</v>
@@ -21176,7 +21183,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -21203,7 +21210,7 @@
         <v>82</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>82</v>
@@ -21211,13 +21218,13 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>82</v>
@@ -21239,19 +21246,19 @@
         <v>92</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -21300,7 +21307,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21318,16 +21325,16 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21335,10 +21342,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21453,10 +21460,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21571,13 +21578,13 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D154" t="s" s="2">
         <v>82</v>
@@ -21599,13 +21606,13 @@
         <v>82</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21671,7 +21678,7 @@
         <v>120</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>82</v>
@@ -21691,10 +21698,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21720,16 +21727,16 @@
         <v>175</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21757,10 +21764,10 @@
         <v>266</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>82</v>
@@ -21778,7 +21785,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21805,7 +21812,7 @@
         <v>82</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AP155" t="s" s="2">
         <v>82</v>
@@ -21813,10 +21820,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21842,13 +21849,13 @@
         <v>105</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>287</v>
@@ -21900,7 +21907,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21927,7 +21934,7 @@
         <v>82</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="AP156" t="s" s="2">
         <v>82</v>
@@ -21935,14 +21942,14 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
@@ -21964,13 +21971,13 @@
         <v>105</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
@@ -22020,7 +22027,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -22035,10 +22042,10 @@
         <v>103</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>82</v>
@@ -22047,7 +22054,7 @@
         <v>82</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AP157" t="s" s="2">
         <v>82</v>
@@ -22055,14 +22062,14 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -22084,13 +22091,13 @@
         <v>105</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -22140,7 +22147,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -22155,10 +22162,10 @@
         <v>103</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>82</v>
@@ -22167,7 +22174,7 @@
         <v>82</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="AP158" t="s" s="2">
         <v>82</v>
@@ -22175,10 +22182,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22204,10 +22211,10 @@
         <v>105</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -22258,7 +22265,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -22273,10 +22280,10 @@
         <v>103</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>82</v>
@@ -22285,7 +22292,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22293,10 +22300,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22322,10 +22329,10 @@
         <v>105</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -22376,7 +22383,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22394,7 +22401,7 @@
         <v>82</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>82</v>
@@ -22403,7 +22410,7 @@
         <v>82</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="AP160" t="s" s="2">
         <v>82</v>
@@ -22411,10 +22418,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22440,14 +22447,14 @@
         <v>346</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>82</v>
@@ -22496,7 +22503,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22523,7 +22530,7 @@
         <v>82</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="AP161" t="s" s="2">
         <v>82</v>
@@ -22531,10 +22538,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22557,19 +22564,19 @@
         <v>82</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
@@ -22618,7 +22625,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22630,13 +22637,13 @@
         <v>209</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>82</v>
@@ -22645,7 +22652,7 @@
         <v>82</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AP162" t="s" s="2">
         <v>82</v>
@@ -22653,10 +22660,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22682,16 +22689,16 @@
         <v>175</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22720,7 +22727,7 @@
       </c>
       <c r="Y163" s="2"/>
       <c r="Z163" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>82</v>
@@ -22738,7 +22745,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22753,19 +22760,19 @@
         <v>103</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="AP163" t="s" s="2">
         <v>82</v>
@@ -22773,10 +22780,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22799,19 +22806,19 @@
         <v>92</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
@@ -22860,7 +22867,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22875,30 +22882,30 @@
         <v>103</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO164" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="AP164" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22921,19 +22928,19 @@
         <v>92</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="O165" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>82</v>
@@ -22982,7 +22989,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -23000,7 +23007,7 @@
         <v>82</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>109</v>
@@ -23009,7 +23016,7 @@
         <v>82</v>
       </c>
       <c r="AO165" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="AP165" t="s" s="2">
         <v>82</v>
@@ -23017,10 +23024,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23055,7 +23062,7 @@
         <v>245</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>82</v>
@@ -23104,7 +23111,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -23139,10 +23146,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23168,14 +23175,14 @@
         <v>405</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>82</v>
@@ -23204,7 +23211,7 @@
       </c>
       <c r="Y167" s="2"/>
       <c r="Z167" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="AA167" t="s" s="2">
         <v>82</v>
@@ -23222,7 +23229,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -23240,16 +23247,16 @@
         <v>82</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="AP167" t="s" s="2">
         <v>82</v>
@@ -23257,10 +23264,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23283,19 +23290,19 @@
         <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>82</v>
@@ -23344,7 +23351,7 @@
         <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -23362,7 +23369,7 @@
         <v>82</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>109</v>
@@ -23371,7 +23378,7 @@
         <v>82</v>
       </c>
       <c r="AO168" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="AP168" t="s" s="2">
         <v>82</v>
@@ -23379,10 +23386,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23405,19 +23412,19 @@
         <v>82</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="O169" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>82</v>
@@ -23466,7 +23473,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23484,7 +23491,7 @@
         <v>82</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="AM169" t="s" s="2">
         <v>109</v>
@@ -23493,7 +23500,7 @@
         <v>82</v>
       </c>
       <c r="AO169" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="AP169" t="s" s="2">
         <v>82</v>
@@ -23501,10 +23508,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23527,19 +23534,19 @@
         <v>82</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="O170" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
@@ -23588,7 +23595,7 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23600,13 +23607,13 @@
         <v>82</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>109</v>
@@ -23623,10 +23630,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23741,10 +23748,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23857,13 +23864,13 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>82</v>
@@ -23885,13 +23892,13 @@
         <v>82</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -23977,13 +23984,13 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D174" t="s" s="2">
         <v>82</v>
@@ -24005,13 +24012,13 @@
         <v>82</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
@@ -24097,14 +24104,14 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" t="s" s="2">
@@ -24126,10 +24133,10 @@
         <v>112</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="N175" t="s" s="2">
         <v>115</v>
@@ -24184,7 +24191,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -24219,10 +24226,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24248,14 +24255,14 @@
         <v>405</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>82</v>
@@ -24283,16 +24290,16 @@
         <v>157</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB176" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="AC176" s="2"/>
       <c r="AD176" t="s" s="2">
@@ -24302,7 +24309,7 @@
         <v>118</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -24320,7 +24327,7 @@
         <v>82</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>109</v>
@@ -24329,7 +24336,7 @@
         <v>82</v>
       </c>
       <c r="AO176" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AP176" t="s" s="2">
         <v>82</v>
@@ -24337,13 +24344,13 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>82</v>
@@ -24368,14 +24375,14 @@
         <v>405</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>82</v>
@@ -24404,7 +24411,7 @@
       </c>
       <c r="Y177" s="2"/>
       <c r="Z177" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="AA177" t="s" s="2">
         <v>82</v>
@@ -24422,7 +24429,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -24440,7 +24447,7 @@
         <v>82</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>109</v>
@@ -24449,7 +24456,7 @@
         <v>82</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AP177" t="s" s="2">
         <v>82</v>
@@ -24457,13 +24464,13 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>82</v>
@@ -24488,14 +24495,14 @@
         <v>405</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>82</v>
@@ -24524,7 +24531,7 @@
       </c>
       <c r="Y178" s="2"/>
       <c r="Z178" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="AA178" t="s" s="2">
         <v>82</v>
@@ -24542,7 +24549,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24560,7 +24567,7 @@
         <v>82</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>109</v>
@@ -24569,7 +24576,7 @@
         <v>82</v>
       </c>
       <c r="AO178" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AP178" t="s" s="2">
         <v>82</v>
@@ -24577,10 +24584,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24603,19 +24610,19 @@
         <v>82</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>82</v>
@@ -24664,7 +24671,7 @@
         <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -24682,7 +24689,7 @@
         <v>82</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="AM179" t="s" s="2">
         <v>82</v>
@@ -24691,7 +24698,7 @@
         <v>82</v>
       </c>
       <c r="AO179" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="AP179" t="s" s="2">
         <v>82</v>
@@ -24699,10 +24706,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24725,19 +24732,19 @@
         <v>82</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="O180" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>82</v>
@@ -24786,7 +24793,7 @@
         <v>82</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -24798,13 +24805,13 @@
         <v>209</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AK180" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AM180" t="s" s="2">
         <v>82</v>
@@ -24813,7 +24820,7 @@
         <v>82</v>
       </c>
       <c r="AO180" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AP180" t="s" s="2">
         <v>82</v>
@@ -24821,10 +24828,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24847,17 +24854,17 @@
         <v>82</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>82</v>
@@ -24906,7 +24913,7 @@
         <v>82</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
@@ -24924,7 +24931,7 @@
         <v>82</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="AM181" t="s" s="2">
         <v>109</v>
@@ -24933,7 +24940,7 @@
         <v>82</v>
       </c>
       <c r="AO181" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="AP181" t="s" s="2">
         <v>82</v>
@@ -24941,10 +24948,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24970,14 +24977,14 @@
         <v>175</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>82</v>
@@ -25005,10 +25012,10 @@
         <v>266</v>
       </c>
       <c r="Y182" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="Z182" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="AA182" t="s" s="2">
         <v>82</v>
@@ -25026,7 +25033,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -25044,7 +25051,7 @@
         <v>82</v>
       </c>
       <c r="AL182" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="AM182" t="s" s="2">
         <v>109</v>
@@ -25053,7 +25060,7 @@
         <v>82</v>
       </c>
       <c r="AO182" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="AP182" t="s" s="2">
         <v>82</v>
@@ -25061,10 +25068,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25090,14 +25097,14 @@
         <v>444</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>82</v>
@@ -25146,7 +25153,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>80</v>
@@ -25155,7 +25162,7 @@
         <v>91</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>103</v>
@@ -25164,7 +25171,7 @@
         <v>82</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>109</v>
@@ -25173,7 +25180,7 @@
         <v>82</v>
       </c>
       <c r="AO183" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="AP183" t="s" s="2">
         <v>82</v>
@@ -25181,10 +25188,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25210,10 +25217,10 @@
         <v>346</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
@@ -25264,7 +25271,7 @@
         <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -25282,7 +25289,7 @@
         <v>82</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>109</v>
@@ -25299,10 +25306,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25325,19 +25332,19 @@
         <v>82</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="O185" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>82</v>
@@ -25386,7 +25393,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -25404,10 +25411,10 @@
         <v>82</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>82</v>
@@ -25421,10 +25428,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25539,10 +25546,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25659,14 +25666,14 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" t="s" s="2">
@@ -25688,10 +25695,10 @@
         <v>112</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="N188" t="s" s="2">
         <v>115</v>
@@ -25746,7 +25753,7 @@
         <v>82</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>80</v>
@@ -25781,10 +25788,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25810,16 +25817,16 @@
         <v>405</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="O189" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="P189" t="s" s="2">
         <v>82</v>
@@ -25868,7 +25875,7 @@
         <v>82</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>91</v>
@@ -25886,16 +25893,16 @@
         <v>82</v>
       </c>
       <c r="AL189" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="AM189" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="AN189" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO189" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="AP189" t="s" s="2">
         <v>82</v>
@@ -25903,10 +25910,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25929,19 +25936,19 @@
         <v>82</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="O190" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="P190" t="s" s="2">
         <v>82</v>
@@ -25990,7 +25997,7 @@
         <v>82</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -26008,16 +26015,16 @@
         <v>82</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="AN190" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO190" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="AP190" t="s" s="2">
         <v>82</v>
@@ -26025,14 +26032,14 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" t="s" s="2">
@@ -26051,16 +26058,16 @@
         <v>82</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
@@ -26110,7 +26117,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>80</v>
@@ -26128,7 +26135,7 @@
         <v>82</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>109</v>
@@ -26137,7 +26144,7 @@
         <v>82</v>
       </c>
       <c r="AO191" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="AP191" t="s" s="2">
         <v>82</v>
@@ -26145,10 +26152,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26171,19 +26178,19 @@
         <v>92</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="O192" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>82</v>
@@ -26232,7 +26239,7 @@
         <v>82</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -26250,10 +26257,10 @@
         <v>82</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>82</v>
@@ -26267,10 +26274,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -26293,19 +26300,19 @@
         <v>92</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>82</v>
@@ -26354,7 +26361,7 @@
         <v>82</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>80</v>
@@ -26372,7 +26379,7 @@
         <v>82</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="AM193" t="s" s="2">
         <v>109</v>
@@ -26389,10 +26396,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26507,10 +26514,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26627,14 +26634,14 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" t="s" s="2">
@@ -26656,10 +26663,10 @@
         <v>112</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="N196" t="s" s="2">
         <v>115</v>
@@ -26714,7 +26721,7 @@
         <v>82</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>80</v>
@@ -26749,10 +26756,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26775,16 +26782,16 @@
         <v>92</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="O197" s="2"/>
       <c r="P197" t="s" s="2">
@@ -26834,7 +26841,7 @@
         <v>82</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>91</v>
@@ -26861,7 +26868,7 @@
         <v>82</v>
       </c>
       <c r="AO197" t="s" s="2">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="AP197" t="s" s="2">
         <v>82</v>
@@ -26869,10 +26876,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26898,10 +26905,10 @@
         <v>175</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -26931,28 +26938,28 @@
         <v>266</v>
       </c>
       <c r="Y198" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="Z198" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="AA198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF198" t="s" s="2">
         <v>881</v>
-      </c>
-      <c r="Z198" t="s" s="2">
-        <v>882</v>
-      </c>
-      <c r="AA198" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB198" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC198" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD198" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE198" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF198" t="s" s="2">
-        <v>879</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>91</v>
@@ -26970,7 +26977,7 @@
         <v>82</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="AM198" t="s" s="2">
         <v>109</v>
